--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CREDITOS  4 CARNES   Z A V A L E T A   ENERO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CREDITOS  4 CARNES   Z A V A L E T A   ENERO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="32">
   <si>
     <t>REMISION</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>PEPE FILETE</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1320,13 +1323,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1373,13 +1376,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3243,8 +3246,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4852,13 +4855,15 @@
       <c r="E64" s="84">
         <v>12020</v>
       </c>
-      <c r="F64" s="100"/>
+      <c r="F64" s="100">
+        <v>44580</v>
+      </c>
       <c r="G64" s="101">
-        <v>0</v>
+        <v>12020</v>
       </c>
       <c r="H64" s="18">
         <f t="shared" si="0"/>
-        <v>12020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4961,11 +4966,11 @@
       <c r="F72" s="39"/>
       <c r="G72" s="39">
         <f>SUM(G4:G71)</f>
-        <v>1274390</v>
+        <v>1286410</v>
       </c>
       <c r="H72" s="40">
         <f>SUM(H4:H71)</f>
-        <v>12020</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -5009,7 +5014,7 @@
       <c r="D76" s="2"/>
       <c r="E76" s="108">
         <f>E72-G72</f>
-        <v>12020</v>
+        <v>0</v>
       </c>
       <c r="F76" s="109"/>
       <c r="G76" s="110"/>
@@ -5155,8 +5160,8 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5235,11 +5240,15 @@
       <c r="E4" s="15">
         <v>7232</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="16">
+        <v>44580</v>
+      </c>
+      <c r="G4" s="17">
+        <v>7232</v>
+      </c>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H36" si="0">E4-G4</f>
-        <v>7232</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -5257,11 +5266,15 @@
       <c r="E5" s="20">
         <v>7667</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G5" s="22">
+        <v>7667</v>
+      </c>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>7667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5278,11 +5291,15 @@
       <c r="E6" s="20">
         <v>11332</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G6" s="22">
+        <v>11332</v>
+      </c>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>11332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5324,11 +5341,15 @@
       <c r="E8" s="20">
         <v>7987</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G8" s="22">
+        <v>7987</v>
+      </c>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
-        <v>7987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5345,11 +5366,15 @@
       <c r="E9" s="20">
         <v>3462</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3462</v>
+      </c>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v>3462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5416,11 +5441,15 @@
       <c r="E12" s="20">
         <v>6618</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G12" s="22">
+        <v>6618</v>
+      </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>6618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5437,11 +5466,15 @@
       <c r="E13" s="20">
         <v>8241</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G13" s="22">
+        <v>8241</v>
+      </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>8241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5483,11 +5516,15 @@
       <c r="E15" s="20">
         <v>13074</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G15" s="22">
+        <v>13074</v>
+      </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>13074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5504,11 +5541,15 @@
       <c r="E16" s="20">
         <v>44476</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G16" s="22">
+        <v>44476</v>
+      </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>44476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5525,11 +5566,15 @@
       <c r="E17" s="20">
         <v>12113</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G17" s="22">
+        <v>12113</v>
+      </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>12113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5569,11 +5614,15 @@
       <c r="E19" s="20">
         <v>1348</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G19" s="22">
+        <v>1348</v>
+      </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>1348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5590,11 +5639,15 @@
       <c r="E20" s="20">
         <v>1</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G20" s="22">
+        <v>1</v>
+      </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5703,11 +5756,15 @@
       <c r="E25" s="20">
         <v>218111</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G25" s="22">
+        <v>218111</v>
+      </c>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>218111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5724,11 +5781,15 @@
       <c r="E26" s="20">
         <v>469</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G26" s="22">
+        <v>469</v>
+      </c>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,11 +5806,15 @@
       <c r="E27" s="20">
         <v>16564</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G27" s="22">
+        <v>16564</v>
+      </c>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>16564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5839,11 +5904,15 @@
       <c r="E31" s="20">
         <v>6560</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="21">
+        <v>44580</v>
+      </c>
+      <c r="G31" s="22">
+        <v>6560</v>
+      </c>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>6560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5922,11 +5991,11 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39">
         <f>SUM(G4:G36)</f>
-        <v>44789</v>
+        <v>410044</v>
       </c>
       <c r="H37" s="40">
         <f>SUM(H4:H36)</f>
-        <v>366370</v>
+        <v>1115</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -5970,7 +6039,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="108">
         <f>E37-G37</f>
-        <v>366370</v>
+        <v>1115</v>
       </c>
       <c r="F41" s="109"/>
       <c r="G41" s="110"/>
@@ -6114,10 +6183,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6199,7 +6268,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H36" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H55" si="0">E4-G4</f>
         <v>831</v>
       </c>
       <c r="I4" s="2"/>
@@ -6720,14 +6789,16 @@
         <v>27564</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13">
         <v>156</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="67"/>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="18">
@@ -6741,8 +6812,10 @@
         <v>157</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="67"/>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="75">
@@ -6751,284 +6824,597 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12">
+        <v>44580</v>
+      </c>
       <c r="B31" s="13">
         <v>158</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="20">
+        <v>20704</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20704</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="23">
+        <v>44580</v>
+      </c>
       <c r="B32" s="13">
         <v>159</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
+      <c r="D32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="20">
+        <v>20316</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>44581</v>
+      </c>
       <c r="B33" s="13">
         <v>160</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
+      <c r="D33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="20">
+        <v>504</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>44581</v>
+      </c>
       <c r="B34" s="13">
         <v>161</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
+      <c r="D34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="20">
+        <v>26978</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>44581</v>
+      </c>
       <c r="B35" s="13">
         <v>162</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
+      <c r="D35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="20">
+        <v>4271</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34">
-        <v>0</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="39">
-        <f>SUM(E4:E36)</f>
-        <v>283483</v>
-      </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39">
-        <f>SUM(G4:G36)</f>
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="13">
+        <v>163</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="13">
+        <v>164</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="13">
+        <v>165</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="13">
+        <v>166</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="13">
+        <v>167</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="13">
+        <v>168</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="13">
+        <v>169</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="13">
+        <v>170</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="13">
+        <v>171</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="13">
+        <v>172</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="13">
+        <v>173</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="13">
+        <v>174</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="13">
+        <v>175</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="13">
+        <v>176</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="13">
+        <v>177</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="13">
+        <v>178</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="13">
+        <v>179</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="13">
+        <v>180</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34">
+        <v>0</v>
+      </c>
+      <c r="F55" s="35"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="39">
+        <f>SUM(E4:E55)</f>
+        <v>356256</v>
+      </c>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39">
+        <f>SUM(G4:G55)</f>
         <v>16678</v>
       </c>
-      <c r="H37" s="40">
-        <f>SUM(H4:H36)</f>
-        <v>266805</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="45" t="s">
+      <c r="H56" s="40">
+        <f>SUM(H4:H55)</f>
+        <v>291780</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="46" t="s">
+      <c r="F58" s="42"/>
+      <c r="G58" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="108">
-        <f>E37-G37</f>
-        <v>266805</v>
-      </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="110"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="111" t="s">
+      <c r="H58" s="44"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="108">
+        <f>E56-G56</f>
+        <v>339578</v>
+      </c>
+      <c r="F60" s="109"/>
+      <c r="G60" s="110"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="50"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="43"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="43"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="43"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="43"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="43"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="43"/>
-      <c r="I54" s="2"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="111"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="43"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="30"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="50"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="43"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="43"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="43"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="43"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="43"/>
+      <c r="I73" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E62:G62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CREDITOS  4 CARNES   Z A V A L E T A   ENERO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CREDITOS  4 CARNES   Z A V A L E T A   ENERO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="32">
   <si>
     <t>REMISION</t>
   </si>
@@ -229,7 +229,7 @@
     <t>PEPE FILETE</t>
   </si>
   <si>
-    <t>X</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3246,7 +3246,7 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -5160,8 +5160,8 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6185,8 +6185,8 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6568,11 +6568,15 @@
       <c r="E18" s="20">
         <v>6145</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="103">
+        <v>44582</v>
+      </c>
+      <c r="G18" s="22">
+        <v>6145</v>
+      </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>6145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6790,37 +6794,45 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12">
+        <v>44579</v>
+      </c>
       <c r="B29" s="13">
         <v>156</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="67"/>
+      <c r="D29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="20">
+        <v>20464</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20464</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12">
+        <v>44579</v>
+      </c>
       <c r="B30" s="13">
         <v>157</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="67"/>
+      <c r="D30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="20">
+        <v>470</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6918,176 +6930,246 @@
       <c r="E35" s="20">
         <v>4271</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="21">
+        <v>44584</v>
+      </c>
+      <c r="G35" s="22">
+        <v>4271</v>
+      </c>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>4271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="23">
+        <v>44582</v>
+      </c>
       <c r="B36" s="13">
         <v>163</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="20">
+        <v>17794</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17794</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="23">
+        <v>44583</v>
+      </c>
       <c r="B37" s="13">
         <v>164</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="20">
+        <v>597</v>
+      </c>
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="23">
+        <v>44583</v>
+      </c>
       <c r="B38" s="13">
         <v>165</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="20">
+        <v>13587</v>
+      </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13587</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="23">
+        <v>44583</v>
+      </c>
       <c r="B39" s="13">
         <v>166</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="20">
+        <v>2025</v>
+      </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="23">
+        <v>44583</v>
+      </c>
       <c r="B40" s="13">
         <v>167</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="20">
+        <v>6557</v>
+      </c>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="23">
+        <v>44583</v>
+      </c>
       <c r="B41" s="13">
         <v>168</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="20">
+        <v>44566</v>
+      </c>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="23">
+        <v>44584</v>
+      </c>
       <c r="B42" s="13">
         <v>169</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
+      <c r="D42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="20">
+        <v>16450</v>
+      </c>
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16450</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="23">
+        <v>44586</v>
+      </c>
       <c r="B43" s="13">
         <v>170</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="20">
+        <v>754</v>
+      </c>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="23">
+        <v>44586</v>
+      </c>
       <c r="B44" s="13">
         <v>171</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
+      <c r="D44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="20">
+        <v>15489</v>
+      </c>
       <c r="F44" s="21"/>
       <c r="G44" s="22"/>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15489</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="23">
+        <v>44586</v>
+      </c>
       <c r="B45" s="13">
         <v>172</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
+      <c r="D45" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="20">
+        <v>18072</v>
+      </c>
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18072</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="23">
+        <v>44587</v>
+      </c>
       <c r="B46" s="13">
         <v>173</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
+      <c r="D46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="20">
+        <v>14735</v>
+      </c>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14735</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7097,12 +7179,14 @@
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+      <c r="E47" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
-      <c r="H47" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H47" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7230,16 +7314,16 @@
       <c r="D56" s="2"/>
       <c r="E56" s="39">
         <f>SUM(E4:E55)</f>
-        <v>356256</v>
+        <v>527816</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39">
         <f>SUM(G4:G55)</f>
-        <v>16678</v>
-      </c>
-      <c r="H56" s="40">
+        <v>27094</v>
+      </c>
+      <c r="H56" s="40" t="e">
         <f>SUM(H4:H55)</f>
-        <v>291780</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -7283,7 +7367,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="108">
         <f>E56-G56</f>
-        <v>339578</v>
+        <v>500722</v>
       </c>
       <c r="F60" s="109"/>
       <c r="G60" s="110"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CREDITOS  4 CARNES   Z A V A L E T A   ENERO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CREDITOS  4 CARNES   Z A V A L E T A   ENERO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="31">
   <si>
     <t>REMISION</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>PEPE FILETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -685,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,6 +898,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1937,24 +1938,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -3100,12 +3101,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="108">
+      <c r="D55" s="110">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="109"/>
-      <c r="F55" s="110"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="112"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3119,11 +3120,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="111" t="s">
+      <c r="D57" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3264,25 +3265,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="114"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5012,12 +5013,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="108">
+      <c r="E76" s="110">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="109"/>
-      <c r="G76" s="110"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="112"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -5033,11 +5034,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="111" t="s">
+      <c r="E78" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="111"/>
-      <c r="G78" s="111"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="113"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -5160,8 +5161,8 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5178,25 +5179,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="114"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5689,11 +5690,15 @@
       <c r="E22" s="20">
         <v>370</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="107">
+        <v>44588</v>
+      </c>
+      <c r="G22" s="108">
+        <v>370</v>
+      </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5735,11 +5740,15 @@
       <c r="E24" s="20">
         <v>745</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="107">
+        <v>44588</v>
+      </c>
+      <c r="G24" s="108">
+        <v>745</v>
+      </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5991,11 +6000,11 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39">
         <f>SUM(G4:G36)</f>
-        <v>410044</v>
+        <v>411159</v>
       </c>
       <c r="H37" s="40">
         <f>SUM(H4:H36)</f>
-        <v>1115</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -6037,12 +6046,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="108">
+      <c r="E41" s="110">
         <f>E37-G37</f>
-        <v>1115</v>
-      </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="110"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="111"/>
+      <c r="G41" s="112"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -6058,11 +6067,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="111" t="s">
+      <c r="E43" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -6185,8 +6194,11 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6203,25 +6215,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6265,11 +6277,15 @@
       <c r="E4" s="15">
         <v>831</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="16">
+        <v>44588</v>
+      </c>
+      <c r="G4" s="17">
+        <v>831</v>
+      </c>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H55" si="0">E4-G4</f>
-        <v>831</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -6287,11 +6303,15 @@
       <c r="E5" s="20">
         <v>3815</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G5" s="22">
+        <v>3815</v>
+      </c>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>3815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6308,11 +6328,15 @@
       <c r="E6" s="20">
         <v>12313</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G6" s="22">
+        <v>12313</v>
+      </c>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>12313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6329,11 +6353,15 @@
       <c r="E7" s="20">
         <v>17167</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G7" s="22">
+        <v>17167</v>
+      </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>17167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6350,11 +6378,15 @@
       <c r="E8" s="20">
         <v>22003</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G8" s="22">
+        <v>22003</v>
+      </c>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
-        <v>22003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6371,11 +6403,15 @@
       <c r="E9" s="20">
         <v>142</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G9" s="22">
+        <v>142</v>
+      </c>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6392,11 +6428,15 @@
       <c r="E10" s="20">
         <v>6400</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G10" s="22">
+        <v>6400</v>
+      </c>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>6400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6438,11 +6478,15 @@
       <c r="E12" s="20">
         <v>8120</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G12" s="22">
+        <v>8120</v>
+      </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>8120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6484,11 +6528,15 @@
       <c r="E14" s="20">
         <v>7720</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G14" s="22">
+        <v>7720</v>
+      </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>7720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6505,11 +6553,15 @@
       <c r="E15" s="20">
         <v>27233</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G15" s="22">
+        <v>27233</v>
+      </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>27233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6526,11 +6578,15 @@
       <c r="E16" s="20">
         <v>70</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G16" s="22">
+        <v>70</v>
+      </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6547,11 +6603,15 @@
       <c r="E17" s="20">
         <v>33221</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G17" s="22">
+        <v>33221</v>
+      </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>33221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6593,11 +6653,15 @@
       <c r="E19" s="20">
         <v>3570</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G19" s="22">
+        <v>3570</v>
+      </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>3570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6614,11 +6678,15 @@
       <c r="E20" s="20">
         <v>19520</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G20" s="22">
+        <v>19520</v>
+      </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>19520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6635,11 +6703,15 @@
       <c r="E21" s="20">
         <v>9640</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G21" s="22">
+        <v>9640</v>
+      </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>9640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -6656,11 +6728,15 @@
       <c r="E22" s="20">
         <v>776</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G22" s="22">
+        <v>776</v>
+      </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6677,11 +6753,15 @@
       <c r="E23" s="20">
         <v>20040</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G23" s="22">
+        <v>20040</v>
+      </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>20040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6698,11 +6778,15 @@
       <c r="E24" s="20">
         <v>20097</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="21">
+        <v>44582</v>
+      </c>
+      <c r="G24" s="22">
+        <v>20097</v>
+      </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>20097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6744,11 +6828,15 @@
       <c r="E26" s="20">
         <v>20240</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G26" s="22">
+        <v>20240</v>
+      </c>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>20240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6765,11 +6853,15 @@
       <c r="E27" s="20">
         <v>178</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G27" s="22">
+        <v>178</v>
+      </c>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -6786,11 +6878,15 @@
       <c r="E28" s="20">
         <v>27564</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G28" s="22">
+        <v>27564</v>
+      </c>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>27564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6807,11 +6903,15 @@
       <c r="E29" s="20">
         <v>20464</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G29" s="22">
+        <v>20464</v>
+      </c>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>20464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6828,11 +6928,15 @@
       <c r="E30" s="20">
         <v>470</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G30" s="22">
+        <v>470</v>
+      </c>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6849,11 +6953,15 @@
       <c r="E31" s="20">
         <v>20704</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G31" s="22">
+        <v>20704</v>
+      </c>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>20704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6870,8 +6978,12 @@
       <c r="E32" s="20">
         <v>20316</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G32" s="22">
+        <v>20316</v>
+      </c>
       <c r="H32" s="18">
         <v>0</v>
       </c>
@@ -6890,8 +7002,12 @@
       <c r="E33" s="20">
         <v>504</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G33" s="22">
+        <v>504</v>
+      </c>
       <c r="H33" s="18">
         <v>0</v>
       </c>
@@ -6910,8 +7026,12 @@
       <c r="E34" s="20">
         <v>26978</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G34" s="22">
+        <v>26978</v>
+      </c>
       <c r="H34" s="18">
         <v>0</v>
       </c>
@@ -6955,11 +7075,15 @@
       <c r="E36" s="20">
         <v>17794</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G36" s="22">
+        <v>17794</v>
+      </c>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>17794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6976,11 +7100,15 @@
       <c r="E37" s="20">
         <v>597</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G37" s="22">
+        <v>597</v>
+      </c>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6997,11 +7125,15 @@
       <c r="E38" s="20">
         <v>13587</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G38" s="22">
+        <v>13587</v>
+      </c>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>13587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7018,11 +7150,15 @@
       <c r="E39" s="20">
         <v>2025</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G39" s="22">
+        <v>2025</v>
+      </c>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7039,11 +7175,15 @@
       <c r="E40" s="20">
         <v>6557</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G40" s="22">
+        <v>6557</v>
+      </c>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>6557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7081,11 +7221,15 @@
       <c r="E42" s="20">
         <v>16450</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G42" s="22">
+        <v>16450</v>
+      </c>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>16450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7102,11 +7246,15 @@
       <c r="E43" s="20">
         <v>754</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G43" s="22">
+        <v>754</v>
+      </c>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
-        <v>754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7123,11 +7271,15 @@
       <c r="E44" s="20">
         <v>15489</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="21">
+        <v>44588</v>
+      </c>
+      <c r="G44" s="22">
+        <v>15489</v>
+      </c>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
-        <v>15489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7173,87 +7325,113 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="23">
+        <v>44588</v>
+      </c>
       <c r="B47" s="13">
         <v>174</v>
       </c>
       <c r="C47" s="24"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20" t="s">
-        <v>31</v>
+      <c r="D47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="20">
+        <v>38931</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
-      <c r="H47" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H47" s="18">
+        <f t="shared" si="0"/>
+        <v>38931</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="23">
+        <v>44588</v>
+      </c>
       <c r="B48" s="13">
         <v>175</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
+      <c r="D48" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="20">
+        <v>470</v>
+      </c>
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
       <c r="H48" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="23">
+        <v>44589</v>
+      </c>
       <c r="B49" s="13">
         <v>176</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
+      <c r="D49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="20">
+        <v>14525</v>
+      </c>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14525</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="23">
+        <v>44590</v>
+      </c>
       <c r="B50" s="13">
         <v>177</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
+      <c r="D50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="20">
+        <v>23472</v>
+      </c>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23472</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="23">
+        <v>44590</v>
+      </c>
       <c r="B51" s="13">
         <v>178</v>
       </c>
       <c r="C51" s="24"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
+      <c r="D51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="20">
+        <v>381</v>
+      </c>
       <c r="F51" s="21"/>
       <c r="G51" s="22"/>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
-      <c r="B52" s="13">
-        <v>179</v>
-      </c>
+      <c r="B52" s="13"/>
       <c r="C52" s="24"/>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
@@ -7266,9 +7444,7 @@
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
-      <c r="B53" s="13">
-        <v>180</v>
-      </c>
+      <c r="B53" s="13"/>
       <c r="C53" s="24"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
@@ -7314,16 +7490,16 @@
       <c r="D56" s="2"/>
       <c r="E56" s="39">
         <f>SUM(E4:E55)</f>
-        <v>527816</v>
+        <v>605595</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39">
         <f>SUM(G4:G55)</f>
-        <v>27094</v>
-      </c>
-      <c r="H56" s="40" t="e">
+        <v>450443</v>
+      </c>
+      <c r="H56" s="40">
         <f>SUM(H4:H55)</f>
-        <v>#VALUE!</v>
+        <v>155152</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -7365,12 +7541,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="108">
+      <c r="E60" s="110">
         <f>E56-G56</f>
-        <v>500722</v>
-      </c>
-      <c r="F60" s="109"/>
-      <c r="G60" s="110"/>
+        <v>155152</v>
+      </c>
+      <c r="F60" s="111"/>
+      <c r="G60" s="112"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -7386,11 +7562,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="111" t="s">
+      <c r="E62" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -7548,26 +7724,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -8477,27 +8653,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -8692,11 +8868,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="121">
+      <c r="G11" s="123">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="124"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -10071,11 +10247,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="123">
+      <c r="G81" s="125">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="124"/>
+      <c r="H81" s="126"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -10163,12 +10339,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="108">
+      <c r="E88" s="110">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="109"/>
-      <c r="G88" s="110"/>
+      <c r="F88" s="111"/>
+      <c r="G88" s="112"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -10185,11 +10361,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="111" t="s">
+      <c r="E90" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="111"/>
-      <c r="G90" s="111"/>
+      <c r="F90" s="113"/>
+      <c r="G90" s="113"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -10334,25 +10510,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="114"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11244,12 +11420,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="108">
+      <c r="E52" s="110">
         <f>E48-G48</f>
         <v>734621</v>
       </c>
-      <c r="F52" s="109"/>
-      <c r="G52" s="110"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="112"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -11265,11 +11441,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="111" t="s">
+      <c r="E54" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
